--- a/资产负债表/688560.xlsx
+++ b/资产负债表/688560.xlsx
@@ -769,14 +769,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -784,70 +784,66 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-04 00:00:00</t>
+          <t>2020-12-18 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>826404898.78</v>
+        <v>981044756.5599999</v>
       </c>
       <c r="P2" t="n">
-        <v>114345838.01</v>
+        <v>137813839.79</v>
       </c>
       <c r="Q2" t="n">
-        <v>117257669.33</v>
+        <v>121597320.37</v>
       </c>
       <c r="R2" t="n">
-        <v>88.38266733179999</v>
+        <v>104.3060627933</v>
       </c>
       <c r="S2" t="n">
-        <v>246457767.07</v>
+        <v>304289358.29</v>
       </c>
       <c r="T2" t="n">
-        <v>10.4417865459</v>
+        <v>-27.3850741114</v>
       </c>
       <c r="U2" t="n">
-        <v>100892673.92</v>
+        <v>82460862.69</v>
       </c>
       <c r="V2" t="n">
-        <v>135.1735722232</v>
+        <v>5.9596473445</v>
       </c>
       <c r="W2" t="n">
-        <v>372712913.3</v>
+        <v>284700105.44</v>
       </c>
       <c r="X2" t="n">
-        <v>208681726.74</v>
+        <v>157234960.58</v>
       </c>
       <c r="Y2" t="n">
-        <v>217.8939041073</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>319519.13</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>276.2071966306</v>
-      </c>
+        <v>-12.1069287865</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>453691985.48</v>
+        <v>696344651.12</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.947100836900001</v>
+        <v>16.2189328895</v>
       </c>
       <c r="AD2" t="n">
-        <v>41.6620907491</v>
+        <v>-6.0375218332</v>
       </c>
       <c r="AE2" t="n">
-        <v>123.2747094657</v>
+        <v>-36.0102432711</v>
       </c>
       <c r="AF2" t="n">
-        <v>215.5822936784</v>
+        <v>308.4641788622</v>
       </c>
       <c r="AG2" t="n">
-        <v>45.1005208041</v>
+        <v>29.0200934806</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/688560.xlsx
+++ b/资产负债表/688560.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -789,61 +789,61 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>981044756.5599999</v>
+        <v>985777199.4</v>
       </c>
       <c r="P2" t="n">
-        <v>137813839.79</v>
+        <v>143627512.87</v>
       </c>
       <c r="Q2" t="n">
-        <v>121597320.37</v>
+        <v>112909979.79</v>
       </c>
       <c r="R2" t="n">
-        <v>104.3060627933</v>
+        <v>-3.7078082524</v>
       </c>
       <c r="S2" t="n">
-        <v>304289358.29</v>
+        <v>350226580.97</v>
       </c>
       <c r="T2" t="n">
-        <v>-27.3850741114</v>
+        <v>42.1040956159</v>
       </c>
       <c r="U2" t="n">
-        <v>82460862.69</v>
+        <v>102225813.13</v>
       </c>
       <c r="V2" t="n">
-        <v>5.9596473445</v>
+        <v>1.3213439175</v>
       </c>
       <c r="W2" t="n">
-        <v>284700105.44</v>
+        <v>443593298.87</v>
       </c>
       <c r="X2" t="n">
-        <v>157234960.58</v>
+        <v>241143906.98</v>
       </c>
       <c r="Y2" t="n">
-        <v>-12.1069287865</v>
+        <v>15.5558326774</v>
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>696344651.12</v>
+        <v>542183900.53</v>
       </c>
       <c r="AC2" t="n">
-        <v>16.2189328895</v>
+        <v>19.5048442296</v>
       </c>
       <c r="AD2" t="n">
-        <v>-6.0375218332</v>
+        <v>19.2850140234</v>
       </c>
       <c r="AE2" t="n">
-        <v>-36.0102432711</v>
+        <v>19.0174214632</v>
       </c>
       <c r="AF2" t="n">
-        <v>308.4641788622</v>
+        <v>208.6449631147</v>
       </c>
       <c r="AG2" t="n">
-        <v>29.0200934806</v>
+        <v>44.9993466211</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/688560.xlsx
+++ b/资产负债表/688560.xlsx
@@ -789,61 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>985777199.4</v>
+        <v>826404898.78</v>
       </c>
       <c r="P2" t="n">
-        <v>143627512.87</v>
+        <v>114345838.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>112909979.79</v>
+        <v>117257669.33</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.7078082524</v>
+        <v>88.38266733179999</v>
       </c>
       <c r="S2" t="n">
-        <v>350226580.97</v>
+        <v>246457767.07</v>
       </c>
       <c r="T2" t="n">
-        <v>42.1040956159</v>
+        <v>10.4417865459</v>
       </c>
       <c r="U2" t="n">
-        <v>102225813.13</v>
+        <v>100892673.92</v>
       </c>
       <c r="V2" t="n">
-        <v>1.3213439175</v>
+        <v>135.1735722232</v>
       </c>
       <c r="W2" t="n">
-        <v>443593298.87</v>
+        <v>372712913.3</v>
       </c>
       <c r="X2" t="n">
-        <v>241143906.98</v>
+        <v>208681726.74</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.5558326774</v>
-      </c>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+        <v>217.8939041073</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>319519.13</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>276.2071966306</v>
+      </c>
       <c r="AB2" t="n">
-        <v>542183900.53</v>
+        <v>453691985.48</v>
       </c>
       <c r="AC2" t="n">
-        <v>19.5048442296</v>
+        <v>8.947100836900001</v>
       </c>
       <c r="AD2" t="n">
-        <v>19.2850140234</v>
+        <v>41.6620907491</v>
       </c>
       <c r="AE2" t="n">
-        <v>19.0174214632</v>
+        <v>123.2747094657</v>
       </c>
       <c r="AF2" t="n">
-        <v>208.6449631147</v>
+        <v>215.5822936784</v>
       </c>
       <c r="AG2" t="n">
-        <v>44.9993466211</v>
+        <v>45.1005208041</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/688560.xlsx
+++ b/资产负债表/688560.xlsx
@@ -769,14 +769,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -789,65 +789,61 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>826404898.78</v>
+        <v>981044756.5599999</v>
       </c>
       <c r="P2" t="n">
-        <v>114345838.01</v>
+        <v>137813839.79</v>
       </c>
       <c r="Q2" t="n">
-        <v>117257669.33</v>
+        <v>121597320.37</v>
       </c>
       <c r="R2" t="n">
-        <v>88.38266733179999</v>
+        <v>104.3060627933</v>
       </c>
       <c r="S2" t="n">
-        <v>246457767.07</v>
+        <v>304289358.29</v>
       </c>
       <c r="T2" t="n">
-        <v>10.4417865459</v>
+        <v>-27.3850741114</v>
       </c>
       <c r="U2" t="n">
-        <v>100892673.92</v>
+        <v>82460862.69</v>
       </c>
       <c r="V2" t="n">
-        <v>135.1735722232</v>
+        <v>5.9596473445</v>
       </c>
       <c r="W2" t="n">
-        <v>372712913.3</v>
+        <v>284700105.44</v>
       </c>
       <c r="X2" t="n">
-        <v>208681726.74</v>
+        <v>157234960.58</v>
       </c>
       <c r="Y2" t="n">
-        <v>217.8939041073</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>319519.13</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>276.2071966306</v>
-      </c>
+        <v>-12.1069287865</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>453691985.48</v>
+        <v>696344651.12</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.947100836900001</v>
+        <v>16.2189328895</v>
       </c>
       <c r="AD2" t="n">
-        <v>41.6620907491</v>
+        <v>-6.0375218332</v>
       </c>
       <c r="AE2" t="n">
-        <v>123.2747094657</v>
+        <v>-36.0102432711</v>
       </c>
       <c r="AF2" t="n">
-        <v>215.5822936784</v>
+        <v>308.4641788622</v>
       </c>
       <c r="AG2" t="n">
-        <v>45.1005208041</v>
+        <v>29.0200934806</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
